--- a/dataset/color_range.xlsx
+++ b/dataset/color_range.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\color_recognizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\color_recognizer\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D2211-1181-41CF-A04A-66F4D44D3C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168C608-46D3-4FE1-9A2E-29AF22E664B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{03F52BDC-0433-4116-92CE-69E6036B9E86}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>Auburn</t>
   </si>
   <si>
-    <t>red-orange</t>
-  </si>
-  <si>
     <t>#FFF5EE</t>
   </si>
   <si>
@@ -1597,6 +1594,9 @@
   </si>
   <si>
     <t>Pink-Red</t>
+  </si>
+  <si>
+    <t>Red-Orange</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC391CED-2713-4AA2-A19E-D480A7C8276B}">
   <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:A253"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>255</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>244</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>255</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>255</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>255</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>255</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>255</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>205</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>227</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>215</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>206</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>204</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>178</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>179</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>164</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>128</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>112</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>60</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B21">
         <v>255</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B22">
         <v>255</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B23">
         <v>233</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B24">
         <v>255</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B25">
         <v>233</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B26">
         <v>255</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B27">
         <v>226</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B28">
         <v>255</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B29">
         <v>226</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B30">
         <v>152</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B31">
         <v>205</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B32">
         <v>152</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B33">
         <v>203</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B34">
         <v>194</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B35">
         <v>192</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B36">
         <v>183</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B37">
         <v>121</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B38">
         <v>138</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
       <c r="B39">
         <v>109</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40">
         <v>255</v>
@@ -3221,10 +3221,10 @@
         <v>238</v>
       </c>
       <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
         <v>89</v>
-      </c>
-      <c r="H40" t="s">
-        <v>90</v>
       </c>
       <c r="J40">
         <v>97</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41">
         <v>247</v>
@@ -3253,10 +3253,10 @@
         <v>206</v>
       </c>
       <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
         <v>91</v>
-      </c>
-      <c r="H41" t="s">
-        <v>92</v>
       </c>
       <c r="J41">
         <v>91</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42">
         <v>255</v>
@@ -3285,10 +3285,10 @@
         <v>180</v>
       </c>
       <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s">
         <v>93</v>
-      </c>
-      <c r="H42" t="s">
-        <v>94</v>
       </c>
       <c r="J42">
         <v>91</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43">
         <v>245</v>
@@ -3317,10 +3317,10 @@
         <v>179</v>
       </c>
       <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" t="s">
         <v>95</v>
-      </c>
-      <c r="H43" t="s">
-        <v>96</v>
       </c>
       <c r="J43">
         <v>88</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44">
         <v>250</v>
@@ -3349,10 +3349,10 @@
         <v>165</v>
       </c>
       <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" t="s">
         <v>97</v>
-      </c>
-      <c r="H44" t="s">
-        <v>98</v>
       </c>
       <c r="J44">
         <v>86</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45">
         <v>251</v>
@@ -3381,10 +3381,10 @@
         <v>177</v>
       </c>
       <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" t="s">
         <v>99</v>
-      </c>
-      <c r="H45" t="s">
-        <v>100</v>
       </c>
       <c r="J45">
         <v>85</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46">
         <v>237</v>
@@ -3413,10 +3413,10 @@
         <v>175</v>
       </c>
       <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" t="s">
         <v>101</v>
-      </c>
-      <c r="H46" t="s">
-        <v>102</v>
       </c>
       <c r="J46">
         <v>82</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47">
         <v>255</v>
@@ -3445,10 +3445,10 @@
         <v>71</v>
       </c>
       <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" t="s">
         <v>103</v>
-      </c>
-      <c r="H47" t="s">
-        <v>104</v>
       </c>
       <c r="J47">
         <v>76</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48">
         <v>222</v>
@@ -3477,10 +3477,10 @@
         <v>135</v>
       </c>
       <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" t="s">
         <v>105</v>
-      </c>
-      <c r="H48" t="s">
-        <v>106</v>
       </c>
       <c r="J48">
         <v>74</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49">
         <v>255</v>
@@ -3509,10 +3509,10 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
         <v>107</v>
-      </c>
-      <c r="H49" t="s">
-        <v>108</v>
       </c>
       <c r="J49">
         <v>73</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50">
         <v>255</v>
@@ -3541,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" t="s">
         <v>109</v>
-      </c>
-      <c r="H50" t="s">
-        <v>110</v>
       </c>
       <c r="J50">
         <v>73</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51">
         <v>229</v>
@@ -3573,10 +3573,10 @@
         <v>112</v>
       </c>
       <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" t="s">
         <v>111</v>
-      </c>
-      <c r="H51" t="s">
-        <v>112</v>
       </c>
       <c r="J51">
         <v>71</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52">
         <v>225</v>
@@ -3605,10 +3605,10 @@
         <v>95</v>
       </c>
       <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="s">
         <v>113</v>
-      </c>
-      <c r="H52" t="s">
-        <v>114</v>
       </c>
       <c r="J52">
         <v>70</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53">
         <v>227</v>
@@ -3637,10 +3637,10 @@
         <v>87</v>
       </c>
       <c r="F53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="s">
         <v>115</v>
-      </c>
-      <c r="H53" t="s">
-        <v>116</v>
       </c>
       <c r="J53">
         <v>70</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54">
         <v>195</v>
@@ -3669,10 +3669,10 @@
         <v>145</v>
       </c>
       <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" t="s">
         <v>117</v>
-      </c>
-      <c r="H54" t="s">
-        <v>118</v>
       </c>
       <c r="J54">
         <v>70</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B55">
         <v>255</v>
@@ -3701,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" t="s">
         <v>119</v>
-      </c>
-      <c r="H55" t="s">
-        <v>120</v>
       </c>
       <c r="J55">
         <v>67</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56">
         <v>228</v>
@@ -3733,10 +3733,10 @@
         <v>15</v>
       </c>
       <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" t="s">
         <v>121</v>
-      </c>
-      <c r="H56" t="s">
-        <v>122</v>
       </c>
       <c r="J56">
         <v>66</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57">
         <v>237</v>
@@ -3765,10 +3765,10 @@
         <v>33</v>
       </c>
       <c r="F57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" t="s">
         <v>123</v>
-      </c>
-      <c r="H57" t="s">
-        <v>124</v>
       </c>
       <c r="J57">
         <v>66</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B58">
         <v>255</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" t="s">
         <v>125</v>
-      </c>
-      <c r="H58" t="s">
-        <v>126</v>
       </c>
       <c r="J58">
         <v>65</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59">
         <v>242</v>
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" t="s">
         <v>127</v>
-      </c>
-      <c r="H59" t="s">
-        <v>128</v>
       </c>
       <c r="J59">
         <v>64</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60">
         <v>237</v>
@@ -3861,10 +3861,10 @@
         <v>45</v>
       </c>
       <c r="F60" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" t="s">
         <v>129</v>
-      </c>
-      <c r="H60" t="s">
-        <v>130</v>
       </c>
       <c r="J60">
         <v>64</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61">
         <v>255</v>
@@ -3893,10 +3893,10 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" t="s">
         <v>131</v>
-      </c>
-      <c r="H61" t="s">
-        <v>132</v>
       </c>
       <c r="J61">
         <v>63</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62">
         <v>193</v>
@@ -3925,10 +3925,10 @@
         <v>107</v>
       </c>
       <c r="F62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" t="s">
         <v>133</v>
-      </c>
-      <c r="H62" t="s">
-        <v>134</v>
       </c>
       <c r="J62">
         <v>63</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63">
         <v>255</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" t="s">
         <v>135</v>
-      </c>
-      <c r="H63" t="s">
-        <v>136</v>
       </c>
       <c r="J63">
         <v>61</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B64">
         <v>205</v>
@@ -3989,10 +3989,10 @@
         <v>50</v>
       </c>
       <c r="F64" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" t="s">
         <v>137</v>
-      </c>
-      <c r="H64" t="s">
-        <v>138</v>
       </c>
       <c r="J64">
         <v>57</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B65">
         <v>204</v>
@@ -4021,10 +4021,10 @@
         <v>34</v>
       </c>
       <c r="F65" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" t="s">
         <v>139</v>
-      </c>
-      <c r="H65" t="s">
-        <v>140</v>
       </c>
       <c r="J65">
         <v>55</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B66">
         <v>210</v>
@@ -4053,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="F66" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" t="s">
         <v>141</v>
-      </c>
-      <c r="H66" t="s">
-        <v>142</v>
       </c>
       <c r="J66">
         <v>54</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B67">
         <v>184</v>
@@ -4085,10 +4085,10 @@
         <v>51</v>
       </c>
       <c r="F67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" t="s">
         <v>143</v>
-      </c>
-      <c r="H67" t="s">
-        <v>144</v>
       </c>
       <c r="J67">
         <v>52</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68">
         <v>160</v>
@@ -4117,10 +4117,10 @@
         <v>90</v>
       </c>
       <c r="F68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" t="s">
         <v>145</v>
-      </c>
-      <c r="H68" t="s">
-        <v>146</v>
       </c>
       <c r="J68">
         <v>51</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69">
         <v>204</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" t="s">
         <v>147</v>
-      </c>
-      <c r="H69" t="s">
-        <v>148</v>
       </c>
       <c r="J69">
         <v>49</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70">
         <v>138</v>
@@ -4181,10 +4181,10 @@
         <v>93</v>
       </c>
       <c r="F70" t="s">
+        <v>148</v>
+      </c>
+      <c r="H70" t="s">
         <v>149</v>
-      </c>
-      <c r="H70" t="s">
-        <v>150</v>
       </c>
       <c r="J70">
         <v>48</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71">
         <v>153</v>
@@ -4213,10 +4213,10 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" t="s">
         <v>151</v>
-      </c>
-      <c r="H71" t="s">
-        <v>152</v>
       </c>
       <c r="J71">
         <v>44</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B72">
         <v>131</v>
@@ -4245,10 +4245,10 @@
         <v>83</v>
       </c>
       <c r="F72" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" t="s">
         <v>153</v>
-      </c>
-      <c r="H72" t="s">
-        <v>154</v>
       </c>
       <c r="J72">
         <v>43</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73">
         <v>130</v>
@@ -4277,10 +4277,10 @@
         <v>68</v>
       </c>
       <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" t="s">
         <v>155</v>
-      </c>
-      <c r="H73" t="s">
-        <v>156</v>
       </c>
       <c r="J73">
         <v>42</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74">
         <v>150</v>
@@ -4309,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" t="s">
         <v>157</v>
-      </c>
-      <c r="H74" t="s">
-        <v>158</v>
       </c>
       <c r="J74">
         <v>38</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75">
         <v>123</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
+        <v>158</v>
+      </c>
+      <c r="H75" t="s">
         <v>159</v>
-      </c>
-      <c r="H75" t="s">
-        <v>160</v>
       </c>
       <c r="J75">
         <v>31</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B76">
         <v>112</v>
@@ -4373,10 +4373,10 @@
         <v>20</v>
       </c>
       <c r="F76" t="s">
+        <v>160</v>
+      </c>
+      <c r="H76" t="s">
         <v>161</v>
-      </c>
-      <c r="H76" t="s">
-        <v>162</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B77">
         <v>101</v>
@@ -4405,10 +4405,10 @@
         <v>33</v>
       </c>
       <c r="F77" t="s">
+        <v>162</v>
+      </c>
+      <c r="H77" t="s">
         <v>163</v>
-      </c>
-      <c r="H77" t="s">
-        <v>164</v>
       </c>
       <c r="J77">
         <v>29</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78">
         <v>72</v>
@@ -4437,10 +4437,10 @@
         <v>50</v>
       </c>
       <c r="F78" t="s">
+        <v>164</v>
+      </c>
+      <c r="H78" t="s">
         <v>165</v>
-      </c>
-      <c r="H78" t="s">
-        <v>166</v>
       </c>
       <c r="J78">
         <v>24</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B79">
         <v>61</v>
@@ -4469,10 +4469,10 @@
         <v>31</v>
       </c>
       <c r="F79" t="s">
+        <v>166</v>
+      </c>
+      <c r="H79" t="s">
         <v>167</v>
-      </c>
-      <c r="H79" t="s">
-        <v>168</v>
       </c>
       <c r="J79">
         <v>19</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80">
         <v>255</v>
@@ -4501,10 +4501,10 @@
         <v>220</v>
       </c>
       <c r="F80" t="s">
+        <v>169</v>
+      </c>
+      <c r="H80" t="s">
         <v>170</v>
-      </c>
-      <c r="H80" t="s">
-        <v>171</v>
       </c>
       <c r="J80">
         <v>97</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81">
         <v>250</v>
@@ -4533,10 +4533,10 @@
         <v>190</v>
       </c>
       <c r="F81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" t="s">
         <v>172</v>
-      </c>
-      <c r="H81" t="s">
-        <v>173</v>
       </c>
       <c r="J81">
         <v>93</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82">
         <v>240</v>
@@ -4565,10 +4565,10 @@
         <v>214</v>
       </c>
       <c r="F82" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" t="s">
         <v>174</v>
-      </c>
-      <c r="H82" t="s">
-        <v>175</v>
       </c>
       <c r="J82">
         <v>91</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83">
         <v>229</v>
@@ -4597,10 +4597,10 @@
         <v>226</v>
       </c>
       <c r="F83" t="s">
+        <v>175</v>
+      </c>
+      <c r="H83" t="s">
         <v>176</v>
-      </c>
-      <c r="H83" t="s">
-        <v>177</v>
       </c>
       <c r="J83">
         <v>89</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84">
         <v>243</v>
@@ -4629,10 +4629,10 @@
         <v>171</v>
       </c>
       <c r="F84" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" t="s">
         <v>178</v>
-      </c>
-      <c r="H84" t="s">
-        <v>179</v>
       </c>
       <c r="J84">
         <v>89</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85">
         <v>255</v>
@@ -4661,10 +4661,10 @@
         <v>88</v>
       </c>
       <c r="F85" t="s">
+        <v>179</v>
+      </c>
+      <c r="H85" t="s">
         <v>180</v>
-      </c>
-      <c r="H85" t="s">
-        <v>181</v>
       </c>
       <c r="J85">
         <v>85</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B86">
         <v>240</v>
@@ -4693,10 +4693,10 @@
         <v>130</v>
       </c>
       <c r="F86" t="s">
+        <v>181</v>
+      </c>
+      <c r="H86" t="s">
         <v>182</v>
-      </c>
-      <c r="H86" t="s">
-        <v>183</v>
       </c>
       <c r="J86">
         <v>85</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B87">
         <v>255</v>
@@ -4725,10 +4725,10 @@
         <v>42</v>
       </c>
       <c r="F87" t="s">
+        <v>183</v>
+      </c>
+      <c r="H87" t="s">
         <v>184</v>
-      </c>
-      <c r="H87" t="s">
-        <v>185</v>
       </c>
       <c r="J87">
         <v>82</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B88">
         <v>233</v>
@@ -4757,10 +4757,10 @@
         <v>107</v>
       </c>
       <c r="F88" t="s">
+        <v>185</v>
+      </c>
+      <c r="H88" t="s">
         <v>186</v>
-      </c>
-      <c r="H88" t="s">
-        <v>187</v>
       </c>
       <c r="J88">
         <v>82</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B89">
         <v>244</v>
@@ -4789,10 +4789,10 @@
         <v>48</v>
       </c>
       <c r="F89" t="s">
+        <v>187</v>
+      </c>
+      <c r="H89" t="s">
         <v>188</v>
-      </c>
-      <c r="H89" t="s">
-        <v>189</v>
       </c>
       <c r="J89">
         <v>78</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90">
         <v>255</v>
@@ -4821,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" t="s">
         <v>190</v>
-      </c>
-      <c r="H90" t="s">
-        <v>191</v>
       </c>
       <c r="J90">
         <v>78</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91">
         <v>194</v>
@@ -4853,10 +4853,10 @@
         <v>128</v>
       </c>
       <c r="F91" t="s">
+        <v>191</v>
+      </c>
+      <c r="H91" t="s">
         <v>192</v>
-      </c>
-      <c r="H91" t="s">
-        <v>193</v>
       </c>
       <c r="J91">
         <v>69</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B92">
         <v>218</v>
@@ -4885,10 +4885,10 @@
         <v>32</v>
       </c>
       <c r="F92" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" t="s">
         <v>194</v>
-      </c>
-      <c r="H92" t="s">
-        <v>195</v>
       </c>
       <c r="J92">
         <v>67</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93">
         <v>184</v>
@@ -4917,10 +4917,10 @@
         <v>11</v>
       </c>
       <c r="F93" t="s">
+        <v>195</v>
+      </c>
+      <c r="H93" t="s">
         <v>196</v>
-      </c>
-      <c r="H93" t="s">
-        <v>197</v>
       </c>
       <c r="J93">
         <v>55</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94">
         <v>145</v>
@@ -4949,10 +4949,10 @@
         <v>81</v>
       </c>
       <c r="F94" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" t="s">
         <v>198</v>
-      </c>
-      <c r="H94" t="s">
-        <v>199</v>
       </c>
       <c r="J94">
         <v>50</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B95">
         <v>150</v>
@@ -4981,10 +4981,10 @@
         <v>23</v>
       </c>
       <c r="F95" t="s">
+        <v>199</v>
+      </c>
+      <c r="H95" t="s">
         <v>200</v>
-      </c>
-      <c r="H95" t="s">
-        <v>201</v>
       </c>
       <c r="J95">
         <v>46</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96">
         <v>255</v>
@@ -5013,10 +5013,10 @@
         <v>240</v>
       </c>
       <c r="F96" t="s">
+        <v>202</v>
+      </c>
+      <c r="H96" t="s">
         <v>203</v>
-      </c>
-      <c r="H96" t="s">
-        <v>204</v>
       </c>
       <c r="J96">
         <v>99</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97">
         <v>255</v>
@@ -5045,10 +5045,10 @@
         <v>208</v>
       </c>
       <c r="F97" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" t="s">
         <v>205</v>
-      </c>
-      <c r="H97" t="s">
-        <v>206</v>
       </c>
       <c r="J97">
         <v>97</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B98">
         <v>253</v>
@@ -5077,10 +5077,10 @@
         <v>150</v>
       </c>
       <c r="F98" t="s">
+        <v>206</v>
+      </c>
+      <c r="H98" t="s">
         <v>207</v>
-      </c>
-      <c r="H98" t="s">
-        <v>208</v>
       </c>
       <c r="J98">
         <v>95</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B99">
         <v>245</v>
@@ -5109,10 +5109,10 @@
         <v>220</v>
       </c>
       <c r="F99" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" t="s">
         <v>209</v>
-      </c>
-      <c r="H99" t="s">
-        <v>210</v>
       </c>
       <c r="J99">
         <v>95</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100">
         <v>255</v>
@@ -5141,10 +5141,10 @@
         <v>49</v>
       </c>
       <c r="F100" t="s">
+        <v>210</v>
+      </c>
+      <c r="H100" t="s">
         <v>211</v>
-      </c>
-      <c r="H100" t="s">
-        <v>212</v>
       </c>
       <c r="J100">
         <v>94</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101">
         <v>255</v>
@@ -5173,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
+        <v>212</v>
+      </c>
+      <c r="H101" t="s">
         <v>213</v>
-      </c>
-      <c r="H101" t="s">
-        <v>214</v>
       </c>
       <c r="J101">
         <v>94</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102">
         <v>252</v>
@@ -5205,10 +5205,10 @@
         <v>94</v>
       </c>
       <c r="F102" t="s">
+        <v>214</v>
+      </c>
+      <c r="H102" t="s">
         <v>215</v>
-      </c>
-      <c r="H102" t="s">
-        <v>216</v>
       </c>
       <c r="J102">
         <v>92</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103">
         <v>255</v>
@@ -5237,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
+        <v>216</v>
+      </c>
+      <c r="H103" t="s">
         <v>217</v>
-      </c>
-      <c r="H103" t="s">
-        <v>218</v>
       </c>
       <c r="J103">
         <v>92</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104">
         <v>255</v>
@@ -5269,10 +5269,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
+        <v>218</v>
+      </c>
+      <c r="H104" t="s">
         <v>219</v>
-      </c>
-      <c r="H104" t="s">
-        <v>220</v>
       </c>
       <c r="J104">
         <v>90</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>247</v>
@@ -5301,10 +5301,10 @@
         <v>142</v>
       </c>
       <c r="F105" t="s">
+        <v>220</v>
+      </c>
+      <c r="H105" t="s">
         <v>221</v>
-      </c>
-      <c r="H105" t="s">
-        <v>222</v>
       </c>
       <c r="J105">
         <v>89</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106">
         <v>251</v>
@@ -5333,10 +5333,10 @@
         <v>93</v>
       </c>
       <c r="F106" t="s">
+        <v>222</v>
+      </c>
+      <c r="H106" t="s">
         <v>223</v>
-      </c>
-      <c r="H106" t="s">
-        <v>224</v>
       </c>
       <c r="J106">
         <v>89</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107">
         <v>255</v>
@@ -5365,10 +5365,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
+        <v>224</v>
+      </c>
+      <c r="H107" t="s">
         <v>225</v>
-      </c>
-      <c r="H107" t="s">
-        <v>226</v>
       </c>
       <c r="J107">
         <v>85</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108">
         <v>238</v>
@@ -5397,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
+        <v>226</v>
+      </c>
+      <c r="H108" t="s">
         <v>227</v>
-      </c>
-      <c r="H108" t="s">
-        <v>228</v>
       </c>
       <c r="J108">
         <v>85</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109">
         <v>240</v>
@@ -5429,10 +5429,10 @@
         <v>48</v>
       </c>
       <c r="F109" t="s">
+        <v>228</v>
+      </c>
+      <c r="H109" t="s">
         <v>229</v>
-      </c>
-      <c r="H109" t="s">
-        <v>230</v>
       </c>
       <c r="J109">
         <v>85</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110">
         <v>230</v>
@@ -5461,10 +5461,10 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
+        <v>230</v>
+      </c>
+      <c r="H110" t="s">
         <v>231</v>
-      </c>
-      <c r="H110" t="s">
-        <v>232</v>
       </c>
       <c r="J110">
         <v>83</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111">
         <v>228</v>
@@ -5493,10 +5493,10 @@
         <v>111</v>
       </c>
       <c r="F111" t="s">
+        <v>232</v>
+      </c>
+      <c r="H111" t="s">
         <v>233</v>
-      </c>
-      <c r="H111" t="s">
-        <v>234</v>
       </c>
       <c r="J111">
         <v>82</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B112">
         <v>236</v>
@@ -5525,10 +5525,10 @@
         <v>64</v>
       </c>
       <c r="F112" t="s">
+        <v>234</v>
+      </c>
+      <c r="H112" t="s">
         <v>235</v>
-      </c>
-      <c r="H112" t="s">
-        <v>236</v>
       </c>
       <c r="J112">
         <v>81</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B113">
         <v>207</v>
@@ -5557,10 +5557,10 @@
         <v>196</v>
       </c>
       <c r="F113" t="s">
+        <v>236</v>
+      </c>
+      <c r="H113" t="s">
         <v>237</v>
-      </c>
-      <c r="H113" t="s">
-        <v>238</v>
       </c>
       <c r="J113">
         <v>81</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B114">
         <v>228</v>
@@ -5589,10 +5589,10 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>238</v>
+      </c>
+      <c r="H114" t="s">
         <v>239</v>
-      </c>
-      <c r="H114" t="s">
-        <v>240</v>
       </c>
       <c r="J114">
         <v>79</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115">
         <v>189</v>
@@ -5621,10 +5621,10 @@
         <v>107</v>
       </c>
       <c r="F115" t="s">
+        <v>240</v>
+      </c>
+      <c r="H115" t="s">
         <v>241</v>
-      </c>
-      <c r="H115" t="s">
-        <v>242</v>
       </c>
       <c r="J115">
         <v>69</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B116">
         <v>181</v>
@@ -5653,10 +5653,10 @@
         <v>66</v>
       </c>
       <c r="F116" t="s">
+        <v>242</v>
+      </c>
+      <c r="H116" t="s">
         <v>243</v>
-      </c>
-      <c r="H116" t="s">
-        <v>244</v>
       </c>
       <c r="J116">
         <v>63</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117">
         <v>223</v>
@@ -5685,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
+        <v>244</v>
+      </c>
+      <c r="H117" t="s">
         <v>245</v>
-      </c>
-      <c r="H117" t="s">
-        <v>246</v>
       </c>
       <c r="J117">
         <v>90</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B118">
         <v>191</v>
@@ -5717,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
+        <v>246</v>
+      </c>
+      <c r="H118" t="s">
         <v>247</v>
-      </c>
-      <c r="H118" t="s">
-        <v>248</v>
       </c>
       <c r="J118">
         <v>87</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B119">
         <v>167</v>
@@ -5749,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
+        <v>248</v>
+      </c>
+      <c r="H119" t="s">
         <v>249</v>
-      </c>
-      <c r="H119" t="s">
-        <v>250</v>
       </c>
       <c r="J119">
         <v>85</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B120">
         <v>209</v>
@@ -5781,10 +5781,10 @@
         <v>49</v>
       </c>
       <c r="F120" t="s">
+        <v>250</v>
+      </c>
+      <c r="H120" t="s">
         <v>251</v>
-      </c>
-      <c r="H120" t="s">
-        <v>252</v>
       </c>
       <c r="J120">
         <v>81</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B121">
         <v>164</v>
@@ -5813,10 +5813,10 @@
         <v>57</v>
       </c>
       <c r="F121" t="s">
+        <v>252</v>
+      </c>
+      <c r="H121" t="s">
         <v>253</v>
-      </c>
-      <c r="H121" t="s">
-        <v>254</v>
       </c>
       <c r="J121">
         <v>70</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B122">
         <v>141</v>
@@ -5845,10 +5845,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
+        <v>254</v>
+      </c>
+      <c r="H122" t="s">
         <v>255</v>
-      </c>
-      <c r="H122" t="s">
-        <v>256</v>
       </c>
       <c r="J122">
         <v>62</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B123">
         <v>132</v>
@@ -5877,10 +5877,10 @@
         <v>130</v>
       </c>
       <c r="F123" t="s">
+        <v>256</v>
+      </c>
+      <c r="H123" t="s">
         <v>257</v>
-      </c>
-      <c r="H123" t="s">
-        <v>258</v>
       </c>
       <c r="J123">
         <v>52</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B124">
         <v>128</v>
@@ -5909,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
+        <v>258</v>
+      </c>
+      <c r="H124" t="s">
         <v>259</v>
-      </c>
-      <c r="H124" t="s">
-        <v>260</v>
       </c>
       <c r="J124">
         <v>47</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B125">
         <v>75</v>
@@ -5941,10 +5941,10 @@
         <v>32</v>
       </c>
       <c r="F125" t="s">
+        <v>260</v>
+      </c>
+      <c r="H125" t="s">
         <v>261</v>
-      </c>
-      <c r="H125" t="s">
-        <v>262</v>
       </c>
       <c r="J125">
         <v>30</v>
@@ -5973,10 +5973,10 @@
         <v>93</v>
       </c>
       <c r="F126" t="s">
+        <v>263</v>
+      </c>
+      <c r="H126" t="s">
         <v>264</v>
-      </c>
-      <c r="H126" t="s">
-        <v>265</v>
       </c>
       <c r="J126">
         <v>82</v>
@@ -6005,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
+        <v>265</v>
+      </c>
+      <c r="H127" t="s">
         <v>266</v>
-      </c>
-      <c r="H127" t="s">
-        <v>267</v>
       </c>
       <c r="J127">
         <v>82</v>
@@ -6037,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
+        <v>267</v>
+      </c>
+      <c r="H128" t="s">
         <v>268</v>
-      </c>
-      <c r="H128" t="s">
-        <v>269</v>
       </c>
       <c r="J128">
         <v>82</v>
@@ -6069,10 +6069,10 @@
         <v>175</v>
       </c>
       <c r="F129" t="s">
+        <v>269</v>
+      </c>
+      <c r="H129" t="s">
         <v>270</v>
-      </c>
-      <c r="H129" t="s">
-        <v>271</v>
       </c>
       <c r="J129">
         <v>81</v>
@@ -6101,10 +6101,10 @@
         <v>119</v>
       </c>
       <c r="F130" t="s">
+        <v>271</v>
+      </c>
+      <c r="H130" t="s">
         <v>272</v>
-      </c>
-      <c r="H130" t="s">
-        <v>273</v>
       </c>
       <c r="J130">
         <v>74</v>
@@ -6133,10 +6133,10 @@
         <v>114</v>
       </c>
       <c r="F131" t="s">
+        <v>273</v>
+      </c>
+      <c r="H131" t="s">
         <v>274</v>
-      </c>
-      <c r="H131" t="s">
-        <v>275</v>
       </c>
       <c r="J131">
         <v>69</v>
@@ -6165,10 +6165,10 @@
         <v>101</v>
       </c>
       <c r="F132" t="s">
+        <v>275</v>
+      </c>
+      <c r="H132" t="s">
         <v>276</v>
-      </c>
-      <c r="H132" t="s">
-        <v>277</v>
       </c>
       <c r="J132">
         <v>65</v>
@@ -6197,10 +6197,10 @@
         <v>107</v>
       </c>
       <c r="F133" t="s">
+        <v>277</v>
+      </c>
+      <c r="H133" t="s">
         <v>278</v>
-      </c>
-      <c r="H133" t="s">
-        <v>279</v>
       </c>
       <c r="J133">
         <v>60</v>
@@ -6229,10 +6229,10 @@
         <v>60</v>
       </c>
       <c r="F134" t="s">
+        <v>279</v>
+      </c>
+      <c r="H134" t="s">
         <v>280</v>
-      </c>
-      <c r="H134" t="s">
-        <v>281</v>
       </c>
       <c r="J134">
         <v>60</v>
@@ -6261,10 +6261,10 @@
         <v>107</v>
       </c>
       <c r="F135" t="s">
+        <v>281</v>
+      </c>
+      <c r="H135" t="s">
         <v>282</v>
-      </c>
-      <c r="H135" t="s">
-        <v>283</v>
       </c>
       <c r="J135">
         <v>50</v>
@@ -6293,10 +6293,10 @@
         <v>8</v>
       </c>
       <c r="F136" t="s">
+        <v>283</v>
+      </c>
+      <c r="H136" t="s">
         <v>284</v>
-      </c>
-      <c r="H136" t="s">
-        <v>285</v>
       </c>
       <c r="J136">
         <v>42</v>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H137" t="s">
         <v>39</v>
@@ -6357,10 +6357,10 @@
         <v>47</v>
       </c>
       <c r="F138" t="s">
+        <v>286</v>
+      </c>
+      <c r="H138" t="s">
         <v>287</v>
-      </c>
-      <c r="H138" t="s">
-        <v>288</v>
       </c>
       <c r="J138">
         <v>37</v>
@@ -6389,10 +6389,10 @@
         <v>51</v>
       </c>
       <c r="F139" t="s">
+        <v>288</v>
+      </c>
+      <c r="H139" t="s">
         <v>289</v>
-      </c>
-      <c r="H139" t="s">
-        <v>290</v>
       </c>
       <c r="J139">
         <v>27</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B140">
         <v>127</v>
@@ -6421,10 +6421,10 @@
         <v>212</v>
       </c>
       <c r="F140" t="s">
+        <v>290</v>
+      </c>
+      <c r="H140" t="s">
         <v>291</v>
-      </c>
-      <c r="H140" t="s">
-        <v>292</v>
       </c>
       <c r="J140">
         <v>88</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6453,10 +6453,10 @@
         <v>111</v>
       </c>
       <c r="F141" t="s">
+        <v>292</v>
+      </c>
+      <c r="H141" t="s">
         <v>293</v>
-      </c>
-      <c r="H141" t="s">
-        <v>294</v>
       </c>
       <c r="J141">
         <v>81</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B142">
         <v>178</v>
@@ -6485,10 +6485,10 @@
         <v>181</v>
       </c>
       <c r="F142" t="s">
+        <v>294</v>
+      </c>
+      <c r="H142" t="s">
         <v>295</v>
-      </c>
-      <c r="H142" t="s">
-        <v>296</v>
       </c>
       <c r="J142">
         <v>73</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B143">
         <v>163</v>
@@ -6517,10 +6517,10 @@
         <v>173</v>
       </c>
       <c r="F143" t="s">
+        <v>296</v>
+      </c>
+      <c r="H143" t="s">
         <v>297</v>
-      </c>
-      <c r="H143" t="s">
-        <v>298</v>
       </c>
       <c r="J143">
         <v>72</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6549,10 +6549,10 @@
         <v>153</v>
       </c>
       <c r="F144" t="s">
+        <v>298</v>
+      </c>
+      <c r="H144" t="s">
         <v>299</v>
-      </c>
-      <c r="H144" t="s">
-        <v>300</v>
       </c>
       <c r="J144">
         <v>67</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B145">
         <v>80</v>
@@ -6581,10 +6581,10 @@
         <v>120</v>
       </c>
       <c r="F145" t="s">
+        <v>300</v>
+      </c>
+      <c r="H145" t="s">
         <v>301</v>
-      </c>
-      <c r="H145" t="s">
-        <v>302</v>
       </c>
       <c r="J145">
         <v>66</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B146">
         <v>62</v>
@@ -6613,10 +6613,10 @@
         <v>137</v>
       </c>
       <c r="F146" t="s">
+        <v>302</v>
+      </c>
+      <c r="H146" t="s">
         <v>303</v>
-      </c>
-      <c r="H146" t="s">
-        <v>304</v>
       </c>
       <c r="J146">
         <v>60</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -6645,10 +6645,10 @@
         <v>60</v>
       </c>
       <c r="F147" t="s">
+        <v>279</v>
+      </c>
+      <c r="H147" t="s">
         <v>280</v>
-      </c>
-      <c r="H147" t="s">
-        <v>281</v>
       </c>
       <c r="J147">
         <v>60</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>107</v>
       </c>
       <c r="F148" t="s">
+        <v>304</v>
+      </c>
+      <c r="H148" t="s">
         <v>305</v>
-      </c>
-      <c r="H148" t="s">
-        <v>306</v>
       </c>
       <c r="J148">
         <v>54</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B149">
         <v>115</v>
@@ -6709,10 +6709,10 @@
         <v>120</v>
       </c>
       <c r="F149" t="s">
+        <v>306</v>
+      </c>
+      <c r="H149" t="s">
         <v>307</v>
-      </c>
-      <c r="H149" t="s">
-        <v>308</v>
       </c>
       <c r="J149">
         <v>50</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -6741,10 +6741,10 @@
         <v>94</v>
       </c>
       <c r="F150" t="s">
+        <v>308</v>
+      </c>
+      <c r="H150" t="s">
         <v>309</v>
-      </c>
-      <c r="H150" t="s">
-        <v>310</v>
       </c>
       <c r="J150">
         <v>38</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B151">
         <v>23</v>
@@ -6773,10 +6773,10 @@
         <v>69</v>
       </c>
       <c r="F151" t="s">
+        <v>310</v>
+      </c>
+      <c r="H151" t="s">
         <v>311</v>
-      </c>
-      <c r="H151" t="s">
-        <v>312</v>
       </c>
       <c r="J151">
         <v>37</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -6805,10 +6805,10 @@
         <v>60</v>
       </c>
       <c r="F152" t="s">
+        <v>312</v>
+      </c>
+      <c r="H152" t="s">
         <v>313</v>
-      </c>
-      <c r="H152" t="s">
-        <v>314</v>
       </c>
       <c r="J152">
         <v>34</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6837,10 +6837,10 @@
         <v>33</v>
       </c>
       <c r="F153" t="s">
+        <v>314</v>
+      </c>
+      <c r="H153" t="s">
         <v>315</v>
-      </c>
-      <c r="H153" t="s">
-        <v>316</v>
       </c>
       <c r="J153">
         <v>21</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -6869,10 +6869,10 @@
         <v>37</v>
       </c>
       <c r="F154" t="s">
+        <v>316</v>
+      </c>
+      <c r="H154" t="s">
         <v>317</v>
-      </c>
-      <c r="H154" t="s">
-        <v>318</v>
       </c>
       <c r="J154">
         <v>20</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6901,10 +6901,10 @@
         <v>32</v>
       </c>
       <c r="F155" t="s">
+        <v>318</v>
+      </c>
+      <c r="H155" t="s">
         <v>319</v>
-      </c>
-      <c r="H155" t="s">
-        <v>320</v>
       </c>
       <c r="J155">
         <v>15</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B156">
         <v>26</v>
@@ -6933,10 +6933,10 @@
         <v>33</v>
       </c>
       <c r="F156" t="s">
+        <v>320</v>
+      </c>
+      <c r="H156" t="s">
         <v>321</v>
-      </c>
-      <c r="H156" t="s">
-        <v>322</v>
       </c>
       <c r="J156">
         <v>13</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B157">
         <v>231</v>
@@ -6965,10 +6965,10 @@
         <v>255</v>
       </c>
       <c r="F157" t="s">
+        <v>323</v>
+      </c>
+      <c r="H157" t="s">
         <v>324</v>
-      </c>
-      <c r="H157" t="s">
-        <v>325</v>
       </c>
       <c r="J157">
         <v>97</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -6997,10 +6997,10 @@
         <v>255</v>
       </c>
       <c r="F158" t="s">
+        <v>325</v>
+      </c>
+      <c r="H158" t="s">
         <v>326</v>
-      </c>
-      <c r="H158" t="s">
-        <v>327</v>
       </c>
       <c r="J158">
         <v>87</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B159">
         <v>155</v>
@@ -7029,10 +7029,10 @@
         <v>255</v>
       </c>
       <c r="F159" t="s">
+        <v>327</v>
+      </c>
+      <c r="H159" t="s">
         <v>328</v>
-      </c>
-      <c r="H159" t="s">
-        <v>329</v>
       </c>
       <c r="J159">
         <v>83</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -7061,10 +7061,10 @@
         <v>222</v>
       </c>
       <c r="F160" t="s">
+        <v>329</v>
+      </c>
+      <c r="H160" t="s">
         <v>330</v>
-      </c>
-      <c r="H160" t="s">
-        <v>331</v>
       </c>
       <c r="J160">
         <v>79</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B161">
         <v>137</v>
@@ -7093,10 +7093,10 @@
         <v>240</v>
       </c>
       <c r="F161" t="s">
+        <v>331</v>
+      </c>
+      <c r="H161" t="s">
         <v>332</v>
-      </c>
-      <c r="H161" t="s">
-        <v>333</v>
       </c>
       <c r="J161">
         <v>78</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B162">
         <v>135</v>
@@ -7125,10 +7125,10 @@
         <v>235</v>
       </c>
       <c r="F162" t="s">
+        <v>333</v>
+      </c>
+      <c r="H162" t="s">
         <v>334</v>
-      </c>
-      <c r="H162" t="s">
-        <v>335</v>
       </c>
       <c r="J162">
         <v>77</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B163">
         <v>174</v>
@@ -7157,10 +7157,10 @@
         <v>207</v>
       </c>
       <c r="F163" t="s">
+        <v>335</v>
+      </c>
+      <c r="H163" t="s">
         <v>336</v>
-      </c>
-      <c r="H163" t="s">
-        <v>337</v>
       </c>
       <c r="J163">
         <v>76</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B164">
         <v>48</v>
@@ -7189,10 +7189,10 @@
         <v>200</v>
       </c>
       <c r="F164" t="s">
+        <v>337</v>
+      </c>
+      <c r="H164" t="s">
         <v>338</v>
-      </c>
-      <c r="H164" t="s">
-        <v>339</v>
       </c>
       <c r="J164">
         <v>73</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7221,10 +7221,10 @@
         <v>139</v>
       </c>
       <c r="F165" t="s">
+        <v>339</v>
+      </c>
+      <c r="H165" t="s">
         <v>340</v>
-      </c>
-      <c r="H165" t="s">
-        <v>341</v>
       </c>
       <c r="J165">
         <v>47</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -7253,10 +7253,10 @@
         <v>167</v>
       </c>
       <c r="F166" t="s">
+        <v>341</v>
+      </c>
+      <c r="H166" t="s">
         <v>342</v>
-      </c>
-      <c r="H166" t="s">
-        <v>343</v>
       </c>
       <c r="J166">
         <v>46</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -7285,10 +7285,10 @@
         <v>128</v>
       </c>
       <c r="F167" t="s">
+        <v>343</v>
+      </c>
+      <c r="H167" t="s">
         <v>344</v>
-      </c>
-      <c r="H167" t="s">
-        <v>345</v>
       </c>
       <c r="J167">
         <v>43</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -7317,10 +7317,10 @@
         <v>111</v>
       </c>
       <c r="F168" t="s">
+        <v>345</v>
+      </c>
+      <c r="H168" t="s">
         <v>346</v>
-      </c>
-      <c r="H168" t="s">
-        <v>347</v>
       </c>
       <c r="J168">
         <v>40</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B169">
         <v>47</v>
@@ -7349,10 +7349,10 @@
         <v>79</v>
       </c>
       <c r="F169" t="s">
+        <v>347</v>
+      </c>
+      <c r="H169" t="s">
         <v>348</v>
-      </c>
-      <c r="H169" t="s">
-        <v>349</v>
       </c>
       <c r="J169">
         <v>28</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B170">
         <v>240</v>
@@ -7381,10 +7381,10 @@
         <v>255</v>
       </c>
       <c r="F170" t="s">
+        <v>349</v>
+      </c>
+      <c r="H170" t="s">
         <v>350</v>
-      </c>
-      <c r="H170" t="s">
-        <v>351</v>
       </c>
       <c r="J170">
         <v>97</v>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B171">
         <v>161</v>
@@ -7413,10 +7413,10 @@
         <v>241</v>
       </c>
       <c r="F171" t="s">
+        <v>351</v>
+      </c>
+      <c r="H171" t="s">
         <v>352</v>
-      </c>
-      <c r="H171" t="s">
-        <v>353</v>
       </c>
       <c r="J171">
         <v>78</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B172">
         <v>153</v>
@@ -7445,10 +7445,10 @@
         <v>221</v>
       </c>
       <c r="F172" t="s">
+        <v>353</v>
+      </c>
+      <c r="H172" t="s">
         <v>354</v>
-      </c>
-      <c r="H172" t="s">
-        <v>355</v>
       </c>
       <c r="J172">
         <v>73</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B173">
         <v>113</v>
@@ -7477,10 +7477,10 @@
         <v>210</v>
       </c>
       <c r="F173" t="s">
+        <v>355</v>
+      </c>
+      <c r="H173" t="s">
         <v>356</v>
-      </c>
-      <c r="H173" t="s">
-        <v>357</v>
       </c>
       <c r="J173">
         <v>64</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B174">
         <v>100</v>
@@ -7509,10 +7509,10 @@
         <v>237</v>
       </c>
       <c r="F174" t="s">
+        <v>357</v>
+      </c>
+      <c r="H174" t="s">
         <v>358</v>
-      </c>
-      <c r="H174" t="s">
-        <v>359</v>
       </c>
       <c r="J174">
         <v>62</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B175">
         <v>119</v>
@@ -7541,10 +7541,10 @@
         <v>203</v>
       </c>
       <c r="F175" t="s">
+        <v>359</v>
+      </c>
+      <c r="H175" t="s">
         <v>360</v>
-      </c>
-      <c r="H175" t="s">
-        <v>361</v>
       </c>
       <c r="J175">
         <v>62</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B176">
         <v>91</v>
@@ -7573,10 +7573,10 @@
         <v>229</v>
       </c>
       <c r="F176" t="s">
+        <v>361</v>
+      </c>
+      <c r="H176" t="s">
         <v>362</v>
-      </c>
-      <c r="H176" t="s">
-        <v>363</v>
       </c>
       <c r="J176">
         <v>60</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B177">
         <v>49</v>
@@ -7605,10 +7605,10 @@
         <v>231</v>
       </c>
       <c r="F177" t="s">
+        <v>363</v>
+      </c>
+      <c r="H177" t="s">
         <v>364</v>
-      </c>
-      <c r="H177" t="s">
-        <v>365</v>
       </c>
       <c r="J177">
         <v>58</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -7637,10 +7637,10 @@
         <v>255</v>
       </c>
       <c r="F178" t="s">
+        <v>365</v>
+      </c>
+      <c r="H178" t="s">
         <v>366</v>
-      </c>
-      <c r="H178" t="s">
-        <v>367</v>
       </c>
       <c r="J178">
         <v>57</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B179">
         <v>93</v>
@@ -7669,10 +7669,10 @@
         <v>168</v>
       </c>
       <c r="F179" t="s">
+        <v>367</v>
+      </c>
+      <c r="H179" t="s">
         <v>368</v>
-      </c>
-      <c r="H179" t="s">
-        <v>369</v>
       </c>
       <c r="J179">
         <v>53</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B180">
         <v>96</v>
@@ -7701,10 +7701,10 @@
         <v>182</v>
       </c>
       <c r="F180" t="s">
+        <v>369</v>
+      </c>
+      <c r="H180" t="s">
         <v>370</v>
-      </c>
-      <c r="H180" t="s">
-        <v>371</v>
       </c>
       <c r="J180">
         <v>53</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B181">
         <v>70</v>
@@ -7733,10 +7733,10 @@
         <v>180</v>
       </c>
       <c r="F181" t="s">
+        <v>371</v>
+      </c>
+      <c r="H181" t="s">
         <v>372</v>
-      </c>
-      <c r="H181" t="s">
-        <v>373</v>
       </c>
       <c r="J181">
         <v>51</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B182">
         <v>21</v>
@@ -7765,10 +7765,10 @@
         <v>189</v>
       </c>
       <c r="F182" t="s">
+        <v>373</v>
+      </c>
+      <c r="H182" t="s">
         <v>374</v>
-      </c>
-      <c r="H182" t="s">
-        <v>375</v>
       </c>
       <c r="J182">
         <v>43</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B183">
         <v>83</v>
@@ -7797,10 +7797,10 @@
         <v>120</v>
       </c>
       <c r="F183" t="s">
+        <v>375</v>
+      </c>
+      <c r="H183" t="s">
         <v>376</v>
-      </c>
-      <c r="H183" t="s">
-        <v>377</v>
       </c>
       <c r="J183">
         <v>40</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -7829,10 +7829,10 @@
         <v>171</v>
       </c>
       <c r="F184" t="s">
+        <v>377</v>
+      </c>
+      <c r="H184" t="s">
         <v>378</v>
-      </c>
-      <c r="H184" t="s">
-        <v>379</v>
       </c>
       <c r="J184">
         <v>36</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B185">
         <v>15</v>
@@ -7861,10 +7861,10 @@
         <v>146</v>
       </c>
       <c r="F185" t="s">
+        <v>379</v>
+      </c>
+      <c r="H185" t="s">
         <v>380</v>
-      </c>
-      <c r="H185" t="s">
-        <v>381</v>
       </c>
       <c r="J185">
         <v>34</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B186">
         <v>8</v>
@@ -7893,10 +7893,10 @@
         <v>126</v>
       </c>
       <c r="F186" t="s">
+        <v>381</v>
+      </c>
+      <c r="H186" t="s">
         <v>382</v>
-      </c>
-      <c r="H186" t="s">
-        <v>383</v>
       </c>
       <c r="J186">
         <v>29</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B187">
         <v>54</v>
@@ -7925,10 +7925,10 @@
         <v>79</v>
       </c>
       <c r="F187" t="s">
+        <v>383</v>
+      </c>
+      <c r="H187" t="s">
         <v>384</v>
-      </c>
-      <c r="H187" t="s">
-        <v>385</v>
       </c>
       <c r="J187">
         <v>26</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B188">
         <v>59</v>
@@ -7957,10 +7957,10 @@
         <v>75</v>
       </c>
       <c r="F188" t="s">
+        <v>385</v>
+      </c>
+      <c r="H188" t="s">
         <v>386</v>
-      </c>
-      <c r="H188" t="s">
-        <v>387</v>
       </c>
       <c r="J188">
         <v>26</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -7989,10 +7989,10 @@
         <v>102</v>
       </c>
       <c r="F189" t="s">
+        <v>387</v>
+      </c>
+      <c r="H189" t="s">
         <v>388</v>
-      </c>
-      <c r="H189" t="s">
-        <v>389</v>
       </c>
       <c r="J189">
         <v>23</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>99</v>
       </c>
       <c r="F190" t="s">
+        <v>389</v>
+      </c>
+      <c r="H190" t="s">
         <v>390</v>
-      </c>
-      <c r="H190" t="s">
-        <v>391</v>
       </c>
       <c r="J190">
         <v>21</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -8053,10 +8053,10 @@
         <v>71</v>
       </c>
       <c r="F191" t="s">
+        <v>391</v>
+      </c>
+      <c r="H191" t="s">
         <v>392</v>
-      </c>
-      <c r="H191" t="s">
-        <v>393</v>
       </c>
       <c r="J191">
         <v>15</v>
@@ -8085,10 +8085,10 @@
         <v>255</v>
       </c>
       <c r="F192" t="s">
+        <v>394</v>
+      </c>
+      <c r="H192" t="s">
         <v>395</v>
-      </c>
-      <c r="H192" t="s">
-        <v>396</v>
       </c>
       <c r="J192">
         <v>98</v>
@@ -8117,10 +8117,10 @@
         <v>255</v>
       </c>
       <c r="F193" t="s">
+        <v>396</v>
+      </c>
+      <c r="H193" t="s">
         <v>397</v>
-      </c>
-      <c r="H193" t="s">
-        <v>398</v>
       </c>
       <c r="J193">
         <v>84</v>
@@ -8149,10 +8149,10 @@
         <v>208</v>
       </c>
       <c r="F194" t="s">
+        <v>398</v>
+      </c>
+      <c r="H194" t="s">
         <v>399</v>
-      </c>
-      <c r="H194" t="s">
-        <v>400</v>
       </c>
       <c r="J194">
         <v>78</v>
@@ -8181,10 +8181,10 @@
         <v>207</v>
       </c>
       <c r="F195" t="s">
+        <v>400</v>
+      </c>
+      <c r="H195" t="s">
         <v>401</v>
-      </c>
-      <c r="H195" t="s">
-        <v>402</v>
       </c>
       <c r="J195">
         <v>66</v>
@@ -8213,10 +8213,10 @@
         <v>172</v>
       </c>
       <c r="F196" t="s">
+        <v>402</v>
+      </c>
+      <c r="H196" t="s">
         <v>403</v>
-      </c>
-      <c r="H196" t="s">
-        <v>404</v>
       </c>
       <c r="J196">
         <v>59</v>
@@ -8245,7 +8245,7 @@
         <v>255</v>
       </c>
       <c r="F197" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H197" t="s">
         <v>40</v>
@@ -8277,10 +8277,10 @@
         <v>190</v>
       </c>
       <c r="F198" t="s">
+        <v>405</v>
+      </c>
+      <c r="H198" t="s">
         <v>406</v>
-      </c>
-      <c r="H198" t="s">
-        <v>407</v>
       </c>
       <c r="J198">
         <v>41</v>
@@ -8309,10 +8309,10 @@
         <v>167</v>
       </c>
       <c r="F199" t="s">
+        <v>407</v>
+      </c>
+      <c r="H199" t="s">
         <v>408</v>
-      </c>
-      <c r="H199" t="s">
-        <v>409</v>
       </c>
       <c r="J199">
         <v>32</v>
@@ -8341,10 +8341,10 @@
         <v>153</v>
       </c>
       <c r="F200" t="s">
+        <v>409</v>
+      </c>
+      <c r="H200" t="s">
         <v>410</v>
-      </c>
-      <c r="H200" t="s">
-        <v>411</v>
       </c>
       <c r="J200">
         <v>30</v>
@@ -8373,10 +8373,10 @@
         <v>156</v>
       </c>
       <c r="F201" t="s">
+        <v>411</v>
+      </c>
+      <c r="H201" t="s">
         <v>412</v>
-      </c>
-      <c r="H201" t="s">
-        <v>413</v>
       </c>
       <c r="J201">
         <v>27</v>
@@ -8405,10 +8405,10 @@
         <v>143</v>
       </c>
       <c r="F202" t="s">
+        <v>413</v>
+      </c>
+      <c r="H202" t="s">
         <v>414</v>
-      </c>
-      <c r="H202" t="s">
-        <v>415</v>
       </c>
       <c r="J202">
         <v>25</v>
@@ -8437,10 +8437,10 @@
         <v>139</v>
       </c>
       <c r="F203" t="s">
+        <v>415</v>
+      </c>
+      <c r="H203" t="s">
         <v>416</v>
-      </c>
-      <c r="H203" t="s">
-        <v>417</v>
       </c>
       <c r="J203">
         <v>24</v>
@@ -8469,10 +8469,10 @@
         <v>128</v>
       </c>
       <c r="F204" t="s">
+        <v>417</v>
+      </c>
+      <c r="H204" t="s">
         <v>418</v>
-      </c>
-      <c r="H204" t="s">
-        <v>419</v>
       </c>
       <c r="J204">
         <v>22</v>
@@ -8501,10 +8501,10 @@
         <v>112</v>
       </c>
       <c r="F205" t="s">
+        <v>419</v>
+      </c>
+      <c r="H205" t="s">
         <v>420</v>
-      </c>
-      <c r="H205" t="s">
-        <v>421</v>
       </c>
       <c r="J205">
         <v>22</v>
@@ -8533,10 +8533,10 @@
         <v>103</v>
       </c>
       <c r="F206" t="s">
+        <v>421</v>
+      </c>
+      <c r="H206" t="s">
         <v>422</v>
-      </c>
-      <c r="H206" t="s">
-        <v>423</v>
       </c>
       <c r="J206">
         <v>21</v>
@@ -8565,10 +8565,10 @@
         <v>102</v>
       </c>
       <c r="F207" t="s">
+        <v>423</v>
+      </c>
+      <c r="H207" t="s">
         <v>424</v>
-      </c>
-      <c r="H207" t="s">
-        <v>425</v>
       </c>
       <c r="J207">
         <v>20</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B208">
         <v>191</v>
@@ -8597,10 +8597,10 @@
         <v>228</v>
       </c>
       <c r="F208" t="s">
+        <v>425</v>
+      </c>
+      <c r="H208" t="s">
         <v>426</v>
-      </c>
-      <c r="H208" t="s">
-        <v>427</v>
       </c>
       <c r="J208">
         <v>70</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B209">
         <v>181</v>
@@ -8629,10 +8629,10 @@
         <v>220</v>
       </c>
       <c r="F209" t="s">
+        <v>427</v>
+      </c>
+      <c r="H209" t="s">
         <v>428</v>
-      </c>
-      <c r="H209" t="s">
-        <v>429</v>
       </c>
       <c r="J209">
         <v>64</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B210">
         <v>150</v>
@@ -8661,10 +8661,10 @@
         <v>214</v>
       </c>
       <c r="F210" t="s">
+        <v>429</v>
+      </c>
+      <c r="H210" t="s">
         <v>430</v>
-      </c>
-      <c r="H210" t="s">
-        <v>431</v>
       </c>
       <c r="J210">
         <v>58</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B211">
         <v>143</v>
@@ -8693,10 +8693,10 @@
         <v>255</v>
       </c>
       <c r="F211" t="s">
+        <v>431</v>
+      </c>
+      <c r="H211" t="s">
         <v>432</v>
-      </c>
-      <c r="H211" t="s">
-        <v>433</v>
       </c>
       <c r="J211">
         <v>53</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B212">
         <v>115</v>
@@ -8725,10 +8725,10 @@
         <v>150</v>
       </c>
       <c r="F212" t="s">
+        <v>433</v>
+      </c>
+      <c r="H212" t="s">
         <v>434</v>
-      </c>
-      <c r="H212" t="s">
-        <v>435</v>
       </c>
       <c r="J212">
         <v>42</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B213">
         <v>105</v>
@@ -8757,10 +8757,10 @@
         <v>156</v>
       </c>
       <c r="F213" t="s">
+        <v>435</v>
+      </c>
+      <c r="H213" t="s">
         <v>436</v>
-      </c>
-      <c r="H213" t="s">
-        <v>437</v>
       </c>
       <c r="J213">
         <v>38</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B214">
         <v>209</v>
@@ -8789,10 +8789,10 @@
         <v>232</v>
       </c>
       <c r="F214" t="s">
+        <v>438</v>
+      </c>
+      <c r="H214" t="s">
         <v>439</v>
-      </c>
-      <c r="H214" t="s">
-        <v>440</v>
       </c>
       <c r="J214">
         <v>74</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B215">
         <v>255</v>
@@ -8821,10 +8821,10 @@
         <v>255</v>
       </c>
       <c r="F215" t="s">
+        <v>440</v>
+      </c>
+      <c r="H215" t="s">
         <v>441</v>
-      </c>
-      <c r="H215" t="s">
-        <v>442</v>
       </c>
       <c r="J215">
         <v>70</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B216">
         <v>203</v>
@@ -8853,10 +8853,10 @@
         <v>201</v>
       </c>
       <c r="F216" t="s">
+        <v>442</v>
+      </c>
+      <c r="H216" t="s">
         <v>443</v>
-      </c>
-      <c r="H216" t="s">
-        <v>444</v>
       </c>
       <c r="J216">
         <v>70</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B217">
         <v>179</v>
@@ -8885,10 +8885,10 @@
         <v>181</v>
       </c>
       <c r="F217" t="s">
+        <v>444</v>
+      </c>
+      <c r="H217" t="s">
         <v>445</v>
-      </c>
-      <c r="H217" t="s">
-        <v>446</v>
       </c>
       <c r="J217">
         <v>66</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B218">
         <v>189</v>
@@ -8917,10 +8917,10 @@
         <v>164</v>
       </c>
       <c r="F218" t="s">
+        <v>446</v>
+      </c>
+      <c r="H218" t="s">
         <v>447</v>
-      </c>
-      <c r="H218" t="s">
-        <v>448</v>
       </c>
       <c r="J218">
         <v>52</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B219">
         <v>148</v>
@@ -8949,10 +8949,10 @@
         <v>211</v>
       </c>
       <c r="F219" t="s">
+        <v>448</v>
+      </c>
+      <c r="H219" t="s">
         <v>449</v>
-      </c>
-      <c r="H219" t="s">
-        <v>450</v>
       </c>
       <c r="J219">
         <v>48</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B220">
         <v>142</v>
@@ -8981,10 +8981,10 @@
         <v>133</v>
       </c>
       <c r="F220" t="s">
+        <v>450</v>
+      </c>
+      <c r="H220" t="s">
         <v>451</v>
-      </c>
-      <c r="H220" t="s">
-        <v>452</v>
       </c>
       <c r="J220">
         <v>43</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B221">
         <v>139</v>
@@ -9013,10 +9013,10 @@
         <v>139</v>
       </c>
       <c r="F221" t="s">
+        <v>452</v>
+      </c>
+      <c r="H221" t="s">
         <v>453</v>
-      </c>
-      <c r="H221" t="s">
-        <v>454</v>
       </c>
       <c r="J221">
         <v>39</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B222">
         <v>112</v>
@@ -9045,10 +9045,10 @@
         <v>99</v>
       </c>
       <c r="F222" t="s">
+        <v>454</v>
+      </c>
+      <c r="H222" t="s">
         <v>455</v>
-      </c>
-      <c r="H222" t="s">
-        <v>456</v>
       </c>
       <c r="J222">
         <v>32</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B223">
         <v>93</v>
@@ -9077,10 +9077,10 @@
         <v>84</v>
       </c>
       <c r="F223" t="s">
+        <v>456</v>
+      </c>
+      <c r="H223" t="s">
         <v>457</v>
-      </c>
-      <c r="H223" t="s">
-        <v>458</v>
       </c>
       <c r="J223">
         <v>30</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B224">
         <v>255</v>
@@ -9109,10 +9109,10 @@
         <v>245</v>
       </c>
       <c r="F224" t="s">
+        <v>458</v>
+      </c>
+      <c r="H224" t="s">
         <v>459</v>
-      </c>
-      <c r="H224" t="s">
-        <v>460</v>
       </c>
       <c r="J224">
         <v>96</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B225">
         <v>251</v>
@@ -9141,10 +9141,10 @@
         <v>231</v>
       </c>
       <c r="F225" t="s">
+        <v>460</v>
+      </c>
+      <c r="H225" t="s">
         <v>461</v>
-      </c>
-      <c r="H225" t="s">
-        <v>462</v>
       </c>
       <c r="J225">
         <v>88</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B226">
         <v>244</v>
@@ -9173,10 +9173,10 @@
         <v>194</v>
       </c>
       <c r="F226" t="s">
+        <v>462</v>
+      </c>
+      <c r="H226" t="s">
         <v>463</v>
-      </c>
-      <c r="H226" t="s">
-        <v>464</v>
       </c>
       <c r="J226">
         <v>75</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B227">
         <v>207</v>
@@ -9205,10 +9205,10 @@
         <v>175</v>
       </c>
       <c r="F227" t="s">
+        <v>464</v>
+      </c>
+      <c r="H227" t="s">
         <v>465</v>
-      </c>
-      <c r="H227" t="s">
-        <v>466</v>
       </c>
       <c r="J227">
         <v>62</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B228">
         <v>255</v>
@@ -9237,10 +9237,10 @@
         <v>127</v>
       </c>
       <c r="F228" t="s">
+        <v>466</v>
+      </c>
+      <c r="H228" t="s">
         <v>467</v>
-      </c>
-      <c r="H228" t="s">
-        <v>468</v>
       </c>
       <c r="J228">
         <v>60</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B229">
         <v>135</v>
@@ -9269,10 +9269,10 @@
         <v>87</v>
       </c>
       <c r="F229" t="s">
+        <v>468</v>
+      </c>
+      <c r="H229" t="s">
         <v>469</v>
-      </c>
-      <c r="H229" t="s">
-        <v>470</v>
       </c>
       <c r="J229">
         <v>35</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B230">
         <v>97</v>
@@ -9301,10 +9301,10 @@
         <v>81</v>
       </c>
       <c r="F230" t="s">
+        <v>470</v>
+      </c>
+      <c r="H230" t="s">
         <v>471</v>
-      </c>
-      <c r="H230" t="s">
-        <v>472</v>
       </c>
       <c r="J230">
         <v>31</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B231">
         <v>255</v>
@@ -9333,10 +9333,10 @@
         <v>220</v>
       </c>
       <c r="F231" t="s">
+        <v>473</v>
+      </c>
+      <c r="H231" t="s">
         <v>474</v>
-      </c>
-      <c r="H231" t="s">
-        <v>475</v>
       </c>
       <c r="J231">
         <v>88</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B232">
         <v>255</v>
@@ -9365,10 +9365,10 @@
         <v>203</v>
       </c>
       <c r="F232" t="s">
+        <v>475</v>
+      </c>
+      <c r="H232" t="s">
         <v>476</v>
-      </c>
-      <c r="H232" t="s">
-        <v>477</v>
       </c>
       <c r="J232">
         <v>84</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B233">
         <v>255</v>
@@ -9397,10 +9397,10 @@
         <v>197</v>
       </c>
       <c r="F233" t="s">
+        <v>477</v>
+      </c>
+      <c r="H233" t="s">
         <v>478</v>
-      </c>
-      <c r="H233" t="s">
-        <v>479</v>
       </c>
       <c r="J233">
         <v>82</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B234">
         <v>252</v>
@@ -9429,10 +9429,10 @@
         <v>172</v>
       </c>
       <c r="F234" t="s">
+        <v>479</v>
+      </c>
+      <c r="H234" t="s">
         <v>480</v>
-      </c>
-      <c r="H234" t="s">
-        <v>481</v>
       </c>
       <c r="J234">
         <v>73</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B235">
         <v>231</v>
@@ -9461,10 +9461,10 @@
         <v>128</v>
       </c>
       <c r="F235" t="s">
+        <v>481</v>
+      </c>
+      <c r="H235" t="s">
         <v>482</v>
-      </c>
-      <c r="H235" t="s">
-        <v>483</v>
       </c>
       <c r="J235">
         <v>59</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B236">
         <v>222</v>
@@ -9493,10 +9493,10 @@
         <v>131</v>
       </c>
       <c r="F236" t="s">
+        <v>483</v>
+      </c>
+      <c r="H236" t="s">
         <v>484</v>
-      </c>
-      <c r="H236" t="s">
-        <v>485</v>
       </c>
       <c r="J236">
         <v>59</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B237">
         <v>222</v>
@@ -9525,10 +9525,10 @@
         <v>99</v>
       </c>
       <c r="F237" t="s">
+        <v>485</v>
+      </c>
+      <c r="H237" t="s">
         <v>486</v>
-      </c>
-      <c r="H237" t="s">
-        <v>487</v>
       </c>
       <c r="J237">
         <v>53</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B238">
         <v>227</v>
@@ -9557,10 +9557,10 @@
         <v>93</v>
       </c>
       <c r="F238" t="s">
+        <v>487</v>
+      </c>
+      <c r="H238" t="s">
         <v>488</v>
-      </c>
-      <c r="H238" t="s">
-        <v>489</v>
       </c>
       <c r="J238">
         <v>52</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B239">
         <v>224</v>
@@ -9589,10 +9589,10 @@
         <v>95</v>
       </c>
       <c r="F239" t="s">
+        <v>489</v>
+      </c>
+      <c r="H239" t="s">
         <v>490</v>
-      </c>
-      <c r="H239" t="s">
-        <v>491</v>
       </c>
       <c r="J239">
         <v>51</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B240">
         <v>195</v>
@@ -9621,10 +9621,10 @@
         <v>72</v>
       </c>
       <c r="F240" t="s">
+        <v>491</v>
+      </c>
+      <c r="H240" t="s">
         <v>492</v>
-      </c>
-      <c r="H240" t="s">
-        <v>493</v>
       </c>
       <c r="J240">
         <v>45</v>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B241">
         <v>128</v>
@@ -9653,10 +9653,10 @@
         <v>32</v>
       </c>
       <c r="F241" t="s">
+        <v>493</v>
+      </c>
+      <c r="H241" t="s">
         <v>494</v>
-      </c>
-      <c r="H241" t="s">
-        <v>495</v>
       </c>
       <c r="J241">
         <v>28</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B242">
         <v>86</v>
@@ -9685,10 +9685,10 @@
         <v>25</v>
       </c>
       <c r="F242" t="s">
+        <v>495</v>
+      </c>
+      <c r="H242" t="s">
         <v>496</v>
-      </c>
-      <c r="H242" t="s">
-        <v>497</v>
       </c>
       <c r="J242">
         <v>19</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B243">
         <v>255</v>
@@ -9717,10 +9717,10 @@
         <v>204</v>
       </c>
       <c r="F243" t="s">
+        <v>497</v>
+      </c>
+      <c r="H243" t="s">
         <v>498</v>
-      </c>
-      <c r="H243" t="s">
-        <v>499</v>
       </c>
       <c r="J243">
         <v>84</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B244">
         <v>229</v>
@@ -9749,10 +9749,10 @@
         <v>80</v>
       </c>
       <c r="F244" t="s">
+        <v>499</v>
+      </c>
+      <c r="H244" t="s">
         <v>500</v>
-      </c>
-      <c r="H244" t="s">
-        <v>501</v>
       </c>
       <c r="J244">
         <v>53</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B245">
         <v>204</v>
@@ -9781,10 +9781,10 @@
         <v>92</v>
       </c>
       <c r="F245" t="s">
+        <v>501</v>
+      </c>
+      <c r="H245" t="s">
         <v>502</v>
-      </c>
-      <c r="H245" t="s">
-        <v>503</v>
       </c>
       <c r="J245">
         <v>51</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B246">
         <v>152</v>
@@ -9813,10 +9813,10 @@
         <v>123</v>
       </c>
       <c r="F246" t="s">
+        <v>503</v>
+      </c>
+      <c r="H246" t="s">
         <v>504</v>
-      </c>
-      <c r="H246" t="s">
-        <v>505</v>
       </c>
       <c r="J246">
         <v>51</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B247">
         <v>227</v>
@@ -9845,10 +9845,10 @@
         <v>54</v>
       </c>
       <c r="F247" t="s">
+        <v>505</v>
+      </c>
+      <c r="H247" t="s">
         <v>506</v>
-      </c>
-      <c r="H247" t="s">
-        <v>507</v>
       </c>
       <c r="J247">
         <v>51</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B248">
         <v>220</v>
@@ -9877,10 +9877,10 @@
         <v>60</v>
       </c>
       <c r="F248" t="s">
+        <v>507</v>
+      </c>
+      <c r="H248" t="s">
         <v>508</v>
-      </c>
-      <c r="H248" t="s">
-        <v>509</v>
       </c>
       <c r="J248">
         <v>49</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B249">
         <v>227</v>
@@ -9909,10 +9909,10 @@
         <v>34</v>
       </c>
       <c r="F249" t="s">
+        <v>509</v>
+      </c>
+      <c r="H249" t="s">
         <v>510</v>
-      </c>
-      <c r="H249" t="s">
-        <v>511</v>
       </c>
       <c r="J249">
         <v>49</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B250">
         <v>196</v>
@@ -9941,10 +9941,10 @@
         <v>58</v>
       </c>
       <c r="F250" t="s">
+        <v>511</v>
+      </c>
+      <c r="H250" t="s">
         <v>512</v>
-      </c>
-      <c r="H250" t="s">
-        <v>513</v>
       </c>
       <c r="J250">
         <v>44</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B251">
         <v>137</v>
@@ -9973,10 +9973,10 @@
         <v>69</v>
       </c>
       <c r="F251" t="s">
+        <v>513</v>
+      </c>
+      <c r="H251" t="s">
         <v>514</v>
-      </c>
-      <c r="H251" t="s">
-        <v>515</v>
       </c>
       <c r="J251">
         <v>36</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B252">
         <v>150</v>
@@ -10005,10 +10005,10 @@
         <v>24</v>
       </c>
       <c r="F252" t="s">
+        <v>515</v>
+      </c>
+      <c r="H252" t="s">
         <v>516</v>
-      </c>
-      <c r="H252" t="s">
-        <v>517</v>
       </c>
       <c r="J252">
         <v>32</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B253">
         <v>101</v>
@@ -10037,10 +10037,10 @@
         <v>11</v>
       </c>
       <c r="F253" t="s">
+        <v>517</v>
+      </c>
+      <c r="H253" t="s">
         <v>518</v>
-      </c>
-      <c r="H253" t="s">
-        <v>519</v>
       </c>
       <c r="J253">
         <v>21</v>
